--- a/GrocceryApplication/src/test/resources/TestDatas.xlsx
+++ b/GrocceryApplication/src/test/resources/TestDatas.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sives\eclipse-workspace\GrocceryApplication\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sives\git\FinalProject\GrocceryApplication\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{492EE979-1875-454C-9109-252A0AB6C891}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57041211-D409-43EC-A090-B10165E371EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2415" yWindow="3697" windowWidth="16200" windowHeight="9983" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
+    <sheet name="AdminuserPage" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="6">
   <si>
     <t>admin</t>
   </si>
@@ -34,6 +35,15 @@
   </si>
   <si>
     <t>admin2</t>
+  </si>
+  <si>
+    <t>Anu</t>
+  </si>
+  <si>
+    <t>secret12</t>
+  </si>
+  <si>
+    <t>Staff</t>
   </si>
 </sst>
 </file>
@@ -353,8 +363,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -394,4 +404,30 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{263C9210-E568-4F9E-9896-6015354917D7}">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/GrocceryApplication/src/test/resources/TestDatas.xlsx
+++ b/GrocceryApplication/src/test/resources/TestDatas.xlsx
@@ -1,22 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sives\git\FinalProject\GrocceryApplication\src\test\resources\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57041211-D409-43EC-A090-B10165E371EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{1027C385-BD91-4D50-A585-A8DBE97712ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2415" yWindow="3697" windowWidth="16200" windowHeight="9983" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
     <sheet name="AdminuserPage" sheetId="2" r:id="rId2"/>
+    <sheet name="ManagenewsPage" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:M12"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
   <si>
     <t>admin</t>
   </si>
@@ -44,6 +41,9 @@
   </si>
   <si>
     <t>Staff</t>
+  </si>
+  <si>
+    <t>Automation course</t>
   </si>
 </sst>
 </file>
@@ -410,7 +410,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{263C9210-E568-4F9E-9896-6015354917D7}">
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -430,4 +430,27 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FCB11D4-49F3-49C1-BBD6-0177D2B0DCE1}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="18.9296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/GrocceryApplication/src/test/resources/TestDatas.xlsx
+++ b/GrocceryApplication/src/test/resources/TestDatas.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{1027C385-BD91-4D50-A585-A8DBE97712ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{98273CC1-7E5A-47B5-94EB-5362BEB2BDBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="ManagenewsPage" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:M12"/>
+  <oleSize ref="A1:M16"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -363,7 +363,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
@@ -436,7 +436,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FCB11D4-49F3-49C1-BBD6-0177D2B0DCE1}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>

--- a/GrocceryApplication/src/test/resources/TestDatas.xlsx
+++ b/GrocceryApplication/src/test/resources/TestDatas.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{98273CC1-7E5A-47B5-94EB-5362BEB2BDBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{BE1A8CC1-80BF-4FED-AC3E-8204F6C81B89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="ManagenewsPage" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:M16"/>
+  <oleSize ref="A1:K13"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -363,7 +363,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
@@ -436,7 +436,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FCB11D4-49F3-49C1-BBD6-0177D2B0DCE1}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
